--- a/data/trans_orig/P14B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50ABD034-A5DB-436F-99C8-8ABF99F6DCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9C7EE8-1EDF-437C-A6E5-6170B6632184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A332C5BC-66FD-451F-80D3-F247E92FD648}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ED546E4-EBCF-4578-880E-2798770A40B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
   <si>
     <t>Población cuya úlcera de estómago le limita en 2012 (Tasa respuesta: 1,14%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>40,65%</t>
   </si>
   <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
   </si>
   <si>
     <t>50,48%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>59,35%</t>
   </si>
   <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,10 +138,10 @@
     <t>18,03%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>49,93%</t>
@@ -150,31 +150,31 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>87,05%</t>
+    <t>88,65%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>11,35%</t>
   </si>
   <si>
     <t>87,91%</t>
@@ -183,10 +183,10 @@
     <t>71,69%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -231,55 +231,55 @@
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -291,55 +291,55 @@
     <t>47,09%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
   </si>
   <si>
     <t>44,96%</t>
   </si>
   <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
   </si>
   <si>
     <t>45,52%</t>
   </si>
   <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>52,91%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
   </si>
   <si>
     <t>55,04%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>54,48%</t>
   </si>
   <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
   <si>
     <t>0%</t>
@@ -351,19 +351,16 @@
     <t>31,84%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
+    <t>55,78%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -372,19 +369,16 @@
     <t>68,16%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>44,22%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -408,55 +402,55 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
 </sst>
 </file>
@@ -868,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435E1B3F-64E1-469B-A000-821447FB60EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC9BCC-AAE5-4F01-B630-CAB9AF28A320}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1619,7 +1613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA933F2-AD0E-41E6-8511-4AD2F66E0286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B266A2E-5E97-4084-8024-62DB34A542BC}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1916,10 +1910,10 @@
         <v>103</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1928,13 +1922,13 @@
         <v>5174</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,7 +1946,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -1964,13 +1958,13 @@
         <v>11076</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -1979,13 +1973,13 @@
         <v>19582</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,7 +2053,7 @@
         <v>101</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2068,7 +2062,7 @@
         <v>1033</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
@@ -2083,7 +2077,7 @@
         <v>1033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
@@ -2107,7 +2101,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2119,7 +2113,7 @@
         <v>907</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>52</v>
@@ -2134,7 +2128,7 @@
         <v>1837</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>52</v>
@@ -2208,13 +2202,13 @@
         <v>2737</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2223,13 +2217,13 @@
         <v>13434</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2238,13 +2232,13 @@
         <v>16171</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2259,13 +2253,13 @@
         <v>12512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2274,13 +2268,13 @@
         <v>20832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -2289,13 +2283,13 @@
         <v>33344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B06-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F9C7EE8-1EDF-437C-A6E5-6170B6632184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{116F5738-869D-41A0-B97E-5C567A66E30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0ED546E4-EBCF-4578-880E-2798770A40B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8AC778A5-871D-4129-91E0-DF943B8F25EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>Población cuya úlcera de estómago le limita en 2012 (Tasa respuesta: 1,14%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>40,65%</t>
   </si>
   <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
   </si>
   <si>
     <t>50,48%</t>
   </si>
   <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>59,35%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>49,52%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>18,03%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
   </si>
   <si>
     <t>49,93%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>28,31%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>50,07%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>71,69%</t>
   </si>
   <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -210,7 +210,7 @@
     <t>31,63%</t>
   </si>
   <si>
-    <t>74,64%</t>
+    <t>74,08%</t>
   </si>
   <si>
     <t>63,88%</t>
@@ -225,67 +225,61 @@
     <t>68,37%</t>
   </si>
   <si>
-    <t>25,36%</t>
+    <t>25,92%</t>
   </si>
   <si>
     <t>30,19%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
+    <t>64,3%</t>
   </si>
   <si>
     <t>39,6%</t>
   </si>
   <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>69,81%</t>
   </si>
   <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>51,8%</t>
   </si>
   <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>35,7%</t>
   </si>
   <si>
     <t>60,4%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya úlcera de estómago le limita en 2015 (Tasa respuesta: 0,69%)</t>
+    <t>Población cuya úlcera de estómago le limita en 2016 (Tasa respuesta: 0,69%)</t>
   </si>
   <si>
     <t>47,09%</t>
@@ -300,19 +294,19 @@
     <t>44,96%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
   </si>
   <si>
     <t>45,52%</t>
   </si>
   <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
   </si>
   <si>
     <t>52,91%</t>
@@ -327,19 +321,19 @@
     <t>55,04%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
   </si>
   <si>
     <t>54,48%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
   </si>
   <si>
     <t>0%</t>
@@ -351,16 +345,19 @@
     <t>31,84%</t>
   </si>
   <si>
-    <t>55,78%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
   </si>
   <si>
     <t>76,75%</t>
@@ -369,16 +366,19 @@
     <t>68,16%</t>
   </si>
   <si>
-    <t>44,22%</t>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
   </si>
   <si>
     <t>79,1%</t>
   </si>
   <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -402,55 +402,49 @@
     <t>17,95%</t>
   </si>
   <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
+    <t>21,96%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>78,04%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
 </sst>
 </file>
@@ -862,7 +856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFC9BCC-AAE5-4F01-B630-CAB9AF28A320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA5B5F-6AD1-442F-8D1F-0F2845FBAD18}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1469,10 +1463,10 @@
         <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -1481,13 +1475,13 @@
         <v>31902</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,13 +1496,13 @@
         <v>26832</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -1517,13 +1511,13 @@
         <v>21817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -1532,13 +1526,13 @@
         <v>48649</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,7 +1588,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B266A2E-5E97-4084-8024-62DB34A542BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8AD562-32AA-4525-B032-FBE1CA62404D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1630,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1737,13 +1731,13 @@
         <v>2737</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -1752,13 +1746,13 @@
         <v>7227</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -1767,13 +1761,13 @@
         <v>9964</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1782,13 @@
         <v>3076</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -1803,13 +1797,13 @@
         <v>8849</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -1818,13 +1812,13 @@
         <v>11925</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1895,10 +1889,10 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -1907,13 +1901,13 @@
         <v>5174</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -1922,13 +1916,13 @@
         <v>5174</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,7 +1940,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -1958,13 +1952,13 @@
         <v>11076</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -2050,7 +2044,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>114</v>
@@ -2223,7 +2217,7 @@
         <v>124</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -2232,13 +2226,13 @@
         <v>16171</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2253,13 +2247,13 @@
         <v>12512</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -2268,13 +2262,13 @@
         <v>20832</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -2283,13 +2277,13 @@
         <v>33344</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2345,7 +2339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
